--- a/dashboard_nba.xlsx
+++ b/dashboard_nba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\PYTHON\DIO\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\PYTHON\DIO\Dio_Santander_desafio_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515D8724-8145-4352-96C1-78BBC1730F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7894449D-FC0F-4CF6-B23A-81A748EB55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -852,23 +852,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="17">
-        <dxf>
-          <font>
-            <color rgb="FF006AB7"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
+      <x14:dxfs count="5">
         <dxf>
           <font>
             <color theme="0"/>
@@ -955,247 +939,11 @@
         </dxf>
         <dxf>
           <font>
-            <color theme="0"/>
+            <color rgb="FF006AB7"/>
             <name val="Impact"/>
             <family val="2"/>
             <scheme val="none"/>
           </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF008DF6"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF008DF6"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FFD71E54"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FFFF8585"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FFD71E54"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF008DF6"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF008DF6"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FFD71E54"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FFFF8585"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FFD71E54"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF008DF6"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF008DF6"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FFD71E54"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FFFF8585"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color theme="0"/>
-            <name val="Impact"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FFD71E54"/>
-            </patternFill>
-          </fill>
           <border diagonalUp="0" diagonalDown="0">
             <left/>
             <right/>
@@ -1211,11 +959,11 @@
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
         <x14:slicerStyle name="NBA_subscription_type">
           <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="0"/>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="4"/>
-            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="3"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="2"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="1"/>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="4"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="0"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
       </x14:slicerStyles>
@@ -1241,7 +989,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[assinantes_nbaV2.xlsx]Tasks!Tabela dinâmica4</c:name>
+    <c:name>[dashboard_nba.xlsx]Tasks!Tabela dinâmica4</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -1682,7 +1430,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[assinantes_nbaV2.xlsx]Tasks!Tabela dinâmica1</c:name>
+    <c:name>[dashboard_nba.xlsx]Tasks!Tabela dinâmica1</c:name>
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
@@ -2141,7 +1889,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[assinantes_nbaV2.xlsx]Tasks!Tabela dinâmica3</c:name>
+    <c:name>[dashboard_nba.xlsx]Tasks!Tabela dinâmica3</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -4660,8 +4408,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>165848</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Plan">
@@ -4684,7 +4432,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7969,7 +7717,106 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F036F977-4346-4867-ABEF-313638DDC153}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AFE83D5-7645-4245-8EA3-0D6BD63620D2}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="B5:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Subscription Price" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F036F977-4346-4867-ABEF-313638DDC153}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="B17:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8088,8 +7935,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{110BBEC7-824E-48F1-A8B9-AD389566A112}" name="Tabela dinâmica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{110BBEC7-824E-48F1-A8B9-AD389566A112}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="B11:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8160,105 +8007,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AFE83D5-7645-4245-8EA3-0D6BD63620D2}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="B5:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Subscription Price" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="2">
     <chartFormat chart="6" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
